--- a/Deepseek/default_tables.xlsx
+++ b/Deepseek/default_tables.xlsx
@@ -1,43 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Feedback\Overall\Deepseek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AF195-1EFA-455D-AE18-76B8B056CEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="31">
+  <si>
+    <t>Reportee</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Kristin</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Corey</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,85 +160,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,73 +484,2169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Deepseek/default_tables.xlsx
+++ b/Deepseek/default_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Feedback\Overall\Deepseek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Temp\Temp\Deepseek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AF195-1EFA-455D-AE18-76B8B056CEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDF02F-B4D0-4E43-8EB3-041BF7930956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="32">
   <si>
     <t>Reportee</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Ryan</t>
+  </si>
+  <si>
+    <t>Val</t>
   </si>
 </sst>
 </file>
@@ -748,15 +751,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D31"/>
+      <selection activeCell="E1" sqref="E1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -797,8 +806,11 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -811,8 +823,11 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -825,8 +840,11 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -839,8 +857,11 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -853,8 +874,11 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -867,8 +891,11 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -881,8 +908,11 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -895,8 +925,11 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -909,8 +942,11 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -923,8 +959,11 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -937,8 +976,11 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -951,8 +993,11 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -965,8 +1010,11 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -979,8 +1027,11 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -993,8 +1044,11 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1007,8 +1061,11 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1021,8 +1078,11 @@
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1035,8 +1095,11 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1049,8 +1112,11 @@
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1063,8 +1129,11 @@
       <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1077,8 +1146,11 @@
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1091,8 +1163,11 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1105,8 +1180,11 @@
       <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1119,8 +1197,11 @@
       <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1133,8 +1214,11 @@
       <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1147,8 +1231,11 @@
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1248,11 @@
       <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1175,8 +1265,11 @@
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1187,6 +1280,9 @@
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
         <v>30</v>
       </c>
     </row>
@@ -1197,15 +1293,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F31"/>
+      <selection activeCell="G1" sqref="G1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1320,11 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1244,8 +1343,11 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1264,8 +1366,11 @@
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1284,8 +1389,11 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1412,11 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1324,8 +1435,11 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1344,8 +1458,11 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1364,8 +1481,11 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1384,8 +1504,11 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1404,8 +1527,11 @@
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1424,8 +1550,11 @@
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1573,11 @@
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1464,8 +1596,11 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1484,8 +1619,11 @@
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1504,8 +1642,11 @@
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1524,8 +1665,11 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1688,11 @@
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1564,8 +1711,11 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1584,8 +1734,11 @@
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1604,8 +1757,11 @@
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1624,8 +1780,11 @@
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1644,8 +1803,11 @@
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1664,8 +1826,11 @@
       <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1684,8 +1849,11 @@
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1704,8 +1872,11 @@
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1895,11 @@
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1744,8 +1918,11 @@
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1764,8 +1941,11 @@
       <c r="F28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1784,8 +1964,11 @@
       <c r="F29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1804,8 +1987,11 @@
       <c r="F30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1822,6 +2008,9 @@
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31">
         <v>30</v>
       </c>
     </row>
@@ -1832,15 +2021,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,8 +2054,11 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1891,8 +2083,11 @@
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1917,8 +2112,11 @@
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1970,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +2193,11 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2021,8 +2222,11 @@
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2047,8 +2251,11 @@
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2073,8 +2280,11 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2125,8 +2335,11 @@
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2151,8 +2364,11 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2177,8 +2393,11 @@
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2203,8 +2422,11 @@
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2229,8 +2451,11 @@
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2255,8 +2480,11 @@
       <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2282,7 +2510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2307,8 +2535,11 @@
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2333,8 +2564,11 @@
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2359,8 +2593,11 @@
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2386,7 +2623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2411,8 +2648,11 @@
       <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2437,8 +2677,11 @@
       <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2463,8 +2706,11 @@
       <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2489,8 +2735,11 @@
       <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2515,8 +2764,11 @@
       <c r="H26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2541,8 +2793,11 @@
       <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2567,8 +2822,11 @@
       <c r="H28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2593,8 +2851,11 @@
       <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2619,8 +2880,11 @@
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2643,6 +2907,9 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31">
         <v>30</v>
       </c>
     </row>
